--- a/data/trans_bre/P35A_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P35A_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,48</t>
+          <t>-8,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-32,7%</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-25,62%</t>
+          <t>-53,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-35,8%</t>
+          <t>-30,6%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-52,9%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-51,84%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-60,93%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-40,14%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 0,47</t>
+          <t>-7,22; -1,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 5,35</t>
+          <t>-5,1; 0,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 1,31</t>
+          <t>-7,2; -1,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,41; -1,45</t>
+          <t>-11,66; -4,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 3,81</t>
+          <t>-9,16; -3,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 49,96</t>
+          <t>-7,4; -1,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-51,28; 12,36</t>
+          <t>-72,97; -24,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,27; -7,85</t>
+          <t>-54,6; 1,47</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-71,18; -28,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-65,05; -30,44</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-74,15; -42,95</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-56,55; -14,63</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,46</t>
+          <t>-9,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,61</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,07</t>
+          <t>-11,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,38</t>
+          <t>-10,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-58,22%</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-31,9%</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-52,31%</t>
+          <t>-79,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-37,34%</t>
+          <t>-67,48%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-74,34%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-66,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-65,18%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-35,4%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,4; -3,97</t>
+          <t>-15,8; -6,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 3,17</t>
+          <t>-10,87; -3,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,24; -5,02</t>
+          <t>-15,04; -7,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 3,53</t>
+          <t>-14,55; -6,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,21; -22,51</t>
+          <t>-11,15; -2,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,46; 22,31</t>
+          <t>-6,77; 1,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,23; -24,33</t>
+          <t>-90,02; -62,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,83; 28,23</t>
+          <t>-81,4; -35,27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-84,54; -59,78</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-78,83; -48,87</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-84,18; -24,45</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-68,7; 30,82</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-7,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>31,18%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-32,29%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>-35,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-65,23%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-62,49%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-22,24%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 17,04</t>
+          <t>-9,26; 2,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 6,63</t>
+          <t>-11,8; -0,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 12,42</t>
+          <t>-14,91; -1,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-11,06; 5,44</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-55,47; 232,08</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-79,52; 84,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,45; 104,81</t>
+          <t>-78,71; 76,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-91,41; 6,56</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-85,51; -4,6</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-69,56; 81,67</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-39,94%</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,37%</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,29%</t>
+          <t>-64,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-35,96%</t>
+          <t>-51,63%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-65,4%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-54,91%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-61,69%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-38,9%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,36; -2,54</t>
+          <t>-9,3; -4,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 2,21</t>
+          <t>-6,81; -2,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,36; -3,62</t>
+          <t>-9,66; -5,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,67; -2,52</t>
+          <t>-11,22; -5,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,58; -18,34</t>
+          <t>-8,6; -3,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 17,18</t>
+          <t>-6,37; -1,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,79; -21,45</t>
+          <t>-76,61; -50,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,67; -11,68</t>
+          <t>-65,87; -34,44</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-74,06; -52,92</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-65,65; -40,87</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-73,37; -46,16</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-53,56; -14,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P35A_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P35A_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,26</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-8,1</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-6,37</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-4,51</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-53,29%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-30,6%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-52,9%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-51,84%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-60,93%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-40,14%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.139579090533799</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.562659015467936</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-4.741049728068385</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-8.122933364873409</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-6.373792510252191</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-4.565348544195931</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.5185909866239017</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.3323866817133302</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.5462390356547943</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.519259817977057</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.6093305092774994</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.4034677296018988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,22; -1,84</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 0,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; -1,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-11,66; -4,05</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-9,16; -3,77</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; -1,42</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-72,97; -24,84</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-54,6; 1,47</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-71,18; -28,04</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-65,05; -30,44</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-74,15; -42,95</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-56,55; -14,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.08441966579731</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.340763084550374</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.466324776354477</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-11.67510793009418</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-9.158061592380081</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-7.386998692201513</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.720972562139754</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5654813161815148</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.7230601370269504</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.6548089402970196</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.7414719275068605</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.5677577652780524</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1.575107418122035</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.1696173537432172</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-2.182294066178215</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-4.031306012419637</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-3.772444917189778</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-1.440821267033011</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.2316788673679706</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.02104779221001155</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.3007656618215807</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.3036973251150519</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-0.4294647154366924</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>-0.1471326322459007</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-9,96</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-7,35</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-11,23</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-10,14</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-6,14</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-79,74%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-67,48%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-74,34%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-66,55%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-65,18%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-35,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,8; -6,37</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,87; -3,49</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,04; -7,45</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-14,55; -6,26</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-11,15; -2,46</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-6,77; 1,61</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-90,02; -62,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-81,4; -35,27</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-84,54; -59,78</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-78,83; -48,87</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-84,18; -24,45</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-68,7; 30,82</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-9.429312622202731</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-7.265353836916859</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-11.30460411476409</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-10.15467518843601</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-6.139283252317956</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-2.888285223361056</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.7768708239606671</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.6809710829173081</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.7466666898344601</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.6604136901181566</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.6518072988927966</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.3679300778673555</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,86</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,85</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-35,81%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-65,23%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-62,49%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-22,24%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.36301989685</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.80109319997118</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-15.19075786026208</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-14.72485480538763</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-11.15273430739386</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-7.004277557708634</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8921266884997795</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8174512782787838</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.844415861130031</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.7855312826459766</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.8418441808719778</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.693985334484803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,26; 2,85</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,8; -0,61</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-14,91; -1,47</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-11,06; 5,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-78,71; 76,71</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-91,41; 6,56</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-85,51; -4,6</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-69,56; 81,67</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-5.746972049088215</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-3.629712738669543</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-7.558800228772815</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-6.216245241410984</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-2.458691949594528</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.383496242014051</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.5811953831666676</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.3689317314636074</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.5948367117251752</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.4891155534306704</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>-0.244497990921519</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.2823791958037215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,35</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,67</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-7,63</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-8,21</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-6,3</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-4,04</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-64,91%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-51,63%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-65,4%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-54,91%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-61,69%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-38,9%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.881503376724125</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.524449901192996</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-8.095984526573899</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.702399263376857</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.2605456535927957</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.6712278448720078</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.6433222915315536</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2381175306979395</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,3; -4,28</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; -2,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-9,66; -5,48</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,22; -5,53</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-8,6; -3,95</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; -1,29</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-76,61; -50,72</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-65,87; -34,44</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-74,06; -52,92</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-65,65; -40,87</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-73,37; -46,16</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-53,56; -14,12</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.789378006639593</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.74555675964796</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-15.04540280265956</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.67371245596824</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.7399700536818404</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.9198331755941964</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.8623232832322664</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.696083057520099</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.969097760156949</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.7377337200813311</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-1.951633484395008</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.105904665446133</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.051576920061711</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.02129980817092246</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.06767466400252731</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.8469964493313442</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-5.964109405860555</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.748615521214155</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-7.803206580894341</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-8.249255167116248</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-6.29953028506729</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-4.117495074023345</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.6250407595316564</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.5301073056564465</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.6633029940113254</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.5496560941348463</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.6169403922709408</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.3931982812164737</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.845960349878998</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.970144247566688</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.896822092335752</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.36623882126119</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-8.597161272835477</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-6.441898933060518</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7549134498848264</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6675618300433813</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.745452928869662</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.6564121817580056</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.7336693724906438</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.5413353139009335</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-3.935144934425169</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-2.868552187370463</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-5.690394084134386</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-5.590397547159927</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-3.946440329057384</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-1.363545769527335</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.4731399700277562</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.3655728538037104</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.543002720328028</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.4084868413328945</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-0.4615539819670439</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.1496021088015072</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
